--- a/v3.0.0 (2025)/CIS-v3.0.0-Windows-Server-2022.xlsx
+++ b/v3.0.0 (2025)/CIS-v3.0.0-Windows-Server-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itumfoundation.sharepoint.com/sites/IT/Shared Documents/documentation/Horne/Controls Assessments/IS17 Review Baseline Workstation &amp; Server Image (Annually)/2025/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1611" documentId="13_ncr:1_{E3CA30EB-5497-4A4C-9BDD-F8201475082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{773F20B7-5E59-472E-9BAD-4CBD791AF5CB}"/>
+  <xr:revisionPtr revIDLastSave="1680" documentId="13_ncr:1_{E3CA30EB-5497-4A4C-9BDD-F8201475082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C067FA2F-0670-4737-B5E2-C05425F0820B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
   </bookViews>
   <sheets>
     <sheet name="CIS Windows Server 2022 v3.0.0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1613">
   <si>
     <t>1.1.1</t>
   </si>
@@ -1085,9 +1085,6 @@
     <t>(L1) Ensure 'Allow users to enable online speech recognition services' is set to 'Disabled'</t>
   </si>
   <si>
-    <t>18.3.1</t>
-  </si>
-  <si>
     <t>(L1) Ensure 'Apply UAC restrictions to local accounts on network logons' is set to 'Enabled' (MS only)</t>
   </si>
   <si>
@@ -1268,81 +1265,42 @@
     <t>(L1) Ensure 'Turn off background refresh of Group Policy' is set to 'Disabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.1</t>
-  </si>
-  <si>
     <t>(L1) Ensure 'Turn off downloading of print drivers over HTTP' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.2</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off handwriting personalization data sharing' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.3</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off handwriting recognition error reporting' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.4</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off Internet Connection Wizard if URL connection is referring to Microsoft.com' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.5</t>
-  </si>
-  <si>
     <t>(L1) Ensure 'Turn off Internet download for Web publishing and online ordering wizards' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.6</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off printing over HTTP' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.7</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off Registration if URL connection is referring to Microsoft.com' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.8</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off Search Companion content file updates' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.9</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off the "Order Prints" picture task' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.10</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off the "Publish to Web" task for files and folders' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.11</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off the Windows Messenger Customer Experience Improvement Program' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.12</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off Windows Customer Experience Improvement Program' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.8.22.1.13</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Turn off Windows Error Reporting' is set to 'Enabled'</t>
   </si>
   <si>
@@ -1535,9 +1493,6 @@
     <t>(L1) Ensure 'Configure local setting override for reporting to Microsoft MAPS' is set to 'Disabled'</t>
   </si>
   <si>
-    <t>18.9.47.4.2</t>
-  </si>
-  <si>
     <t>(L2) Ensure 'Join Microsoft MAPS' is set to 'Disabled'</t>
   </si>
   <si>
@@ -1652,9 +1607,6 @@
     <t>(L2) Ensure 'Allow suggested apps in Windows Ink Workspace' is set to 'Disabled'</t>
   </si>
   <si>
-    <t>18.9.89.2</t>
-  </si>
-  <si>
     <t>(L1) Ensure 'Allow Windows Ink Workspace' is set to 'Enabled: On, but disallow access above lock' OR 'Disabled' but not 'Enabled: On'</t>
   </si>
   <si>
@@ -1703,9 +1655,6 @@
     <t>(L1) Ensure 'Configure Automatic Updates' is set to 'Enabled'</t>
   </si>
   <si>
-    <t>18.9.108.2.2</t>
-  </si>
-  <si>
     <t>(L1) Ensure 'Configure Automatic Updates: Scheduled install day' is set to '0 - Every day'</t>
   </si>
   <si>
@@ -4872,6 +4821,60 @@
   </si>
   <si>
     <t>https://workbench.cisecurity.org/sections/2506974/recommendations/4048103</t>
+  </si>
+  <si>
+    <t>18.4.1</t>
+  </si>
+  <si>
+    <t>18.9.20.1.1</t>
+  </si>
+  <si>
+    <t>18.9.20.1.2</t>
+  </si>
+  <si>
+    <t>18.9.20.1.3</t>
+  </si>
+  <si>
+    <t>18.9.20.1.4</t>
+  </si>
+  <si>
+    <t>18.9.20.1.5</t>
+  </si>
+  <si>
+    <t>18.9.20.1.6</t>
+  </si>
+  <si>
+    <t>18.9.20.1.7</t>
+  </si>
+  <si>
+    <t>18.9.20.1.8</t>
+  </si>
+  <si>
+    <t>18.9.20.1.9</t>
+  </si>
+  <si>
+    <t>18.9.20.1.10</t>
+  </si>
+  <si>
+    <t>18.9.20.1.11</t>
+  </si>
+  <si>
+    <t>18.9.20.1.12</t>
+  </si>
+  <si>
+    <t>18.9.20.1.13</t>
+  </si>
+  <si>
+    <t>18.10.42.5.2</t>
+  </si>
+  <si>
+    <t>2025.02.06 Renamed to 18.10.42.17</t>
+  </si>
+  <si>
+    <t>18.10.79.2</t>
+  </si>
+  <si>
+    <t>18.10.92.2.2</t>
   </si>
 </sst>
 </file>
@@ -5017,15 +5020,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5037,18 +5031,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5080,15 +5068,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5103,32 +5085,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5451,25 +5434,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DB50BF-856E-4B09-82A9-B1D3B9A7E638}">
   <dimension ref="A1:E455"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="145.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="191.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="117.36328125" customWidth="1"/>
+    <col min="3" max="3" width="68.54296875" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
-        <v>587</v>
+      <c r="A1" s="17" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>650</v>
+      <c r="A2" s="7" t="s">
+        <v>633</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -5478,75 +5464,75 @@
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
-        <v>641</v>
+      <c r="A4" s="17" t="s">
+        <v>624</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B5" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>647</v>
+      <c r="A6" s="21" t="s">
+        <v>630</v>
       </c>
       <c r="B6" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>639</v>
+      <c r="A7" s="15" t="s">
+        <v>622</v>
       </c>
       <c r="B7" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>645</v>
+      <c r="A8" s="20" t="s">
+        <v>628</v>
       </c>
       <c r="B8" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>640</v>
+      <c r="A9" s="16" t="s">
+        <v>623</v>
       </c>
       <c r="B9" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
-        <v>773</v>
+      <c r="A10" s="28" t="s">
+        <v>756</v>
       </c>
       <c r="B10" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
-        <v>586</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>585</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>588</v>
+      <c r="A12" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>571</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -5556,8 +5542,8 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>651</v>
+      <c r="C13" s="38" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -5567,8 +5553,8 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>652</v>
+      <c r="C14" s="38" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -5578,8 +5564,8 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>653</v>
+      <c r="C15" s="38" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -5589,8 +5575,8 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>654</v>
+      <c r="C16" s="38" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -5600,8 +5586,8 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>655</v>
+      <c r="C17" s="38" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -5611,8 +5597,8 @@
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>656</v>
+      <c r="C18" s="38" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -5622,8 +5608,8 @@
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>657</v>
+      <c r="C19" s="38" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -5633,8 +5619,8 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>658</v>
+      <c r="C20" s="38" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -5644,8 +5630,8 @@
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>659</v>
+      <c r="C21" s="38" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -5653,27 +5639,27 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>662</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>660</v>
+        <v>645</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>643</v>
       </c>
       <c r="D22" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>1610</v>
+      <c r="C23" s="38" t="s">
+        <v>1593</v>
       </c>
       <c r="D23" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -5683,19 +5669,19 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>663</v>
+      <c r="C24" s="38" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>664</v>
+      <c r="C25" s="38" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -5705,8 +5691,8 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>665</v>
+      <c r="C26" s="38" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -5716,19 +5702,19 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>666</v>
+      <c r="C27" s="38" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>667</v>
+      <c r="C28" s="38" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -5738,22 +5724,22 @@
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>668</v>
+      <c r="C29" s="38" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>669</v>
+      <c r="B30" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>652</v>
       </c>
       <c r="D30" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -5763,25 +5749,25 @@
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>671</v>
+      <c r="C31" s="38" t="s">
+        <v>654</v>
       </c>
       <c r="D31" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>675</v>
+      <c r="C32" s="38" t="s">
+        <v>658</v>
       </c>
       <c r="D32" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -5791,11 +5777,11 @@
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>677</v>
+      <c r="C33" s="38" t="s">
+        <v>660</v>
       </c>
       <c r="D33" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -5805,11 +5791,11 @@
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>679</v>
+      <c r="C34" s="38" t="s">
+        <v>662</v>
       </c>
       <c r="D34" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -5819,11 +5805,11 @@
       <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>681</v>
+      <c r="C35" s="38" t="s">
+        <v>664</v>
       </c>
       <c r="D35" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -5833,11 +5819,11 @@
       <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>683</v>
+      <c r="C36" s="38" t="s">
+        <v>666</v>
       </c>
       <c r="D36" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -5847,11 +5833,11 @@
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>685</v>
+      <c r="C37" s="38" t="s">
+        <v>668</v>
       </c>
       <c r="D37" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -5861,11 +5847,11 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>687</v>
+      <c r="C38" s="38" t="s">
+        <v>670</v>
       </c>
       <c r="D38" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -5875,11 +5861,11 @@
       <c r="B39" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>689</v>
+      <c r="C39" s="38" t="s">
+        <v>672</v>
       </c>
       <c r="D39" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -5889,25 +5875,25 @@
       <c r="B40" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>691</v>
+      <c r="C40" s="38" t="s">
+        <v>674</v>
       </c>
       <c r="D40" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>693</v>
+      <c r="C41" s="38" t="s">
+        <v>676</v>
       </c>
       <c r="D41" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -5917,11 +5903,11 @@
       <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>695</v>
+      <c r="C42" s="38" t="s">
+        <v>678</v>
       </c>
       <c r="D42" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -5931,25 +5917,25 @@
       <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>697</v>
+      <c r="C43" s="38" t="s">
+        <v>680</v>
       </c>
       <c r="D43" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>699</v>
+      <c r="C44" s="38" t="s">
+        <v>682</v>
       </c>
       <c r="D44" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -5959,11 +5945,11 @@
       <c r="B45" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>701</v>
+      <c r="C45" s="38" t="s">
+        <v>684</v>
       </c>
       <c r="D45" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -5973,11 +5959,11 @@
       <c r="B46" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>703</v>
+      <c r="C46" s="38" t="s">
+        <v>686</v>
       </c>
       <c r="D46" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -5987,11 +5973,11 @@
       <c r="B47" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>705</v>
+      <c r="C47" s="38" t="s">
+        <v>688</v>
       </c>
       <c r="D47" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -6001,53 +5987,53 @@
       <c r="B48" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>707</v>
+      <c r="C48" s="38" t="s">
+        <v>690</v>
       </c>
       <c r="D48" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>709</v>
+      <c r="C49" s="38" t="s">
+        <v>692</v>
       </c>
       <c r="D49" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>711</v>
+      <c r="C50" s="38" t="s">
+        <v>694</v>
       </c>
       <c r="D50" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>713</v>
+      <c r="C51" s="38" t="s">
+        <v>696</v>
       </c>
       <c r="D51" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -6057,11 +6043,11 @@
       <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>715</v>
+      <c r="C52" s="38" t="s">
+        <v>698</v>
       </c>
       <c r="D52" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -6071,11 +6057,11 @@
       <c r="B53" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>717</v>
+      <c r="C53" s="38" t="s">
+        <v>700</v>
       </c>
       <c r="D53" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -6085,25 +6071,25 @@
       <c r="B54" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>719</v>
+      <c r="C54" s="38" t="s">
+        <v>702</v>
       </c>
       <c r="D54" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>721</v>
+      <c r="C55" s="38" t="s">
+        <v>704</v>
       </c>
       <c r="D55" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -6113,11 +6099,11 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>723</v>
+      <c r="C56" s="38" t="s">
+        <v>706</v>
       </c>
       <c r="D56" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -6127,11 +6113,11 @@
       <c r="B57" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>725</v>
+      <c r="C57" s="38" t="s">
+        <v>708</v>
       </c>
       <c r="D57" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -6141,11 +6127,11 @@
       <c r="B58" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>727</v>
+      <c r="C58" s="38" t="s">
+        <v>710</v>
       </c>
       <c r="D58" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -6155,39 +6141,39 @@
       <c r="B59" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>729</v>
+      <c r="C59" s="38" t="s">
+        <v>712</v>
       </c>
       <c r="D59" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>731</v>
+      <c r="C60" s="38" t="s">
+        <v>714</v>
       </c>
       <c r="D60" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>733</v>
+      <c r="C61" s="38" t="s">
+        <v>716</v>
       </c>
       <c r="D61" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -6197,11 +6183,11 @@
       <c r="B62" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>735</v>
+      <c r="C62" s="38" t="s">
+        <v>718</v>
       </c>
       <c r="D62" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -6211,11 +6197,11 @@
       <c r="B63" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>737</v>
+      <c r="C63" s="38" t="s">
+        <v>720</v>
       </c>
       <c r="D63" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -6225,11 +6211,11 @@
       <c r="B64" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>739</v>
+      <c r="C64" s="38" t="s">
+        <v>722</v>
       </c>
       <c r="D64" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -6239,11 +6225,11 @@
       <c r="B65" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>741</v>
+      <c r="C65" s="38" t="s">
+        <v>724</v>
       </c>
       <c r="D65" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -6253,11 +6239,11 @@
       <c r="B66" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>743</v>
+      <c r="C66" s="38" t="s">
+        <v>726</v>
       </c>
       <c r="D66" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -6267,11 +6253,11 @@
       <c r="B67" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>745</v>
+      <c r="C67" s="38" t="s">
+        <v>728</v>
       </c>
       <c r="D67" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -6281,11 +6267,11 @@
       <c r="B68" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>747</v>
+      <c r="C68" s="38" t="s">
+        <v>730</v>
       </c>
       <c r="D68" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -6295,11 +6281,11 @@
       <c r="B69" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>750</v>
+      <c r="C69" s="38" t="s">
+        <v>733</v>
       </c>
       <c r="D69" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -6309,53 +6295,53 @@
       <c r="B70" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>751</v>
+      <c r="C70" s="38" t="s">
+        <v>734</v>
       </c>
       <c r="D70" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>753</v>
+      <c r="C71" s="38" t="s">
+        <v>736</v>
       </c>
       <c r="D71" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="B72" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>755</v>
+      <c r="C72" s="38" t="s">
+        <v>738</v>
       </c>
       <c r="D72" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="32" t="s">
-        <v>777</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>758</v>
+      <c r="C73" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -6365,11 +6351,11 @@
       <c r="B74" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>759</v>
+      <c r="C74" s="38" t="s">
+        <v>742</v>
       </c>
       <c r="D74" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -6379,11 +6365,11 @@
       <c r="B75" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>761</v>
+      <c r="C75" s="38" t="s">
+        <v>744</v>
       </c>
       <c r="D75" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -6393,11 +6379,11 @@
       <c r="B76" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>763</v>
+      <c r="C76" s="38" t="s">
+        <v>746</v>
       </c>
       <c r="D76" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -6407,11 +6393,11 @@
       <c r="B77" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>765</v>
+      <c r="C77" s="38" t="s">
+        <v>748</v>
       </c>
       <c r="D77" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -6421,11 +6407,11 @@
       <c r="B78" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>767</v>
+      <c r="C78" s="38" t="s">
+        <v>750</v>
       </c>
       <c r="D78" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -6435,8 +6421,8 @@
       <c r="B79" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>769</v>
+      <c r="C79" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -6446,22 +6432,22 @@
       <c r="B80" t="s">
         <v>130</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="30" t="s">
+      <c r="C80" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>775</v>
+      <c r="C81" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -6471,66 +6457,66 @@
       <c r="B82" t="s">
         <v>133</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>771</v>
+      <c r="C82" s="38" t="s">
+        <v>754</v>
       </c>
       <c r="D82" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>778</v>
+      <c r="C83" s="38" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>779</v>
+      <c r="C84" s="38" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>780</v>
+      <c r="C85" s="38" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>781</v>
+      <c r="C86" s="38" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>1611</v>
+      <c r="C87" s="38" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -6540,8 +6526,8 @@
       <c r="B88" t="s">
         <v>145</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>782</v>
+      <c r="C88" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -6551,8 +6537,8 @@
       <c r="B89" t="s">
         <v>147</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>783</v>
+      <c r="C89" s="38" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -6562,8 +6548,8 @@
       <c r="B90" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>784</v>
+      <c r="C90" s="38" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -6573,8 +6559,8 @@
       <c r="B91" t="s">
         <v>151</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>785</v>
+      <c r="C91" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -6584,8 +6570,8 @@
       <c r="B92" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>786</v>
+      <c r="C92" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -6595,8 +6581,8 @@
       <c r="B93" t="s">
         <v>155</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>787</v>
+      <c r="C93" s="38" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -6606,8 +6592,8 @@
       <c r="B94" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>788</v>
+      <c r="C94" s="38" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -6617,8 +6603,8 @@
       <c r="B95" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>789</v>
+      <c r="C95" s="38" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -6628,8 +6614,8 @@
       <c r="B96" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>790</v>
+      <c r="C96" s="38" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -6639,8 +6625,8 @@
       <c r="B97" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>791</v>
+      <c r="C97" s="38" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -6650,8 +6636,8 @@
       <c r="B98" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>792</v>
+      <c r="C98" s="38" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -6661,8 +6647,8 @@
       <c r="B99" t="s">
         <v>167</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>793</v>
+      <c r="C99" s="38" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -6672,8 +6658,8 @@
       <c r="B100" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>794</v>
+      <c r="C100" s="38" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -6683,8 +6669,8 @@
       <c r="B101" t="s">
         <v>171</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>795</v>
+      <c r="C101" s="38" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -6694,8 +6680,8 @@
       <c r="B102" t="s">
         <v>173</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>796</v>
+      <c r="C102" s="38" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -6705,8 +6691,8 @@
       <c r="B103" t="s">
         <v>175</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>797</v>
+      <c r="C103" s="38" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -6716,8 +6702,8 @@
       <c r="B104" t="s">
         <v>177</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>798</v>
+      <c r="C104" s="38" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -6727,8 +6713,8 @@
       <c r="B105" t="s">
         <v>179</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>799</v>
+      <c r="C105" s="38" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -6738,8 +6724,8 @@
       <c r="B106" t="s">
         <v>181</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>800</v>
+      <c r="C106" s="38" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -6749,8 +6735,8 @@
       <c r="B107" t="s">
         <v>183</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>801</v>
+      <c r="C107" s="38" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -6760,8 +6746,8 @@
       <c r="B108" t="s">
         <v>185</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>802</v>
+      <c r="C108" s="38" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -6771,19 +6757,19 @@
       <c r="B109" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>803</v>
+      <c r="C109" s="38" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="27" t="s">
+      <c r="A110" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="B110" s="26" t="s">
+      <c r="B110" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>804</v>
+      <c r="C110" s="38" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -6793,8 +6779,8 @@
       <c r="B111" t="s">
         <v>191</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>805</v>
+      <c r="C111" s="38" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -6804,8 +6790,8 @@
       <c r="B112" t="s">
         <v>193</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>806</v>
+      <c r="C112" s="38" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -6815,19 +6801,19 @@
       <c r="B113" t="s">
         <v>195</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>807</v>
+      <c r="C113" s="38" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="27" t="s">
+      <c r="A114" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>808</v>
+      <c r="C114" s="38" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -6837,19 +6823,19 @@
       <c r="B115" t="s">
         <v>199</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>809</v>
+      <c r="C115" s="38" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>810</v>
+      <c r="C116" s="38" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -6859,8 +6845,8 @@
       <c r="B117" t="s">
         <v>203</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>811</v>
+      <c r="C117" s="38" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -6870,8 +6856,8 @@
       <c r="B118" t="s">
         <v>205</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>812</v>
+      <c r="C118" s="38" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -6881,8 +6867,8 @@
       <c r="B119" t="s">
         <v>207</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>813</v>
+      <c r="C119" s="38" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -6892,8 +6878,8 @@
       <c r="B120" t="s">
         <v>209</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>814</v>
+      <c r="C120" s="38" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -6903,8 +6889,8 @@
       <c r="B121" t="s">
         <v>211</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>815</v>
+      <c r="C121" s="38" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -6914,19 +6900,19 @@
       <c r="B122" t="s">
         <v>213</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>816</v>
+      <c r="C122" s="38" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B123" t="s">
-        <v>589</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>817</v>
+        <v>572</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -6936,8 +6922,8 @@
       <c r="B124" t="s">
         <v>216</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>818</v>
+      <c r="C124" s="38" t="s">
+        <v>801</v>
       </c>
       <c r="D124" s="2"/>
     </row>
@@ -6948,8 +6934,8 @@
       <c r="B125" t="s">
         <v>218</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>819</v>
+      <c r="C125" s="38" t="s">
+        <v>802</v>
       </c>
       <c r="D125" s="2"/>
     </row>
@@ -6960,8 +6946,8 @@
       <c r="B126" t="s">
         <v>220</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>820</v>
+      <c r="C126" s="38" t="s">
+        <v>803</v>
       </c>
       <c r="D126" s="2"/>
     </row>
@@ -6972,8 +6958,8 @@
       <c r="B127" t="s">
         <v>222</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>821</v>
+      <c r="C127" s="38" t="s">
+        <v>804</v>
       </c>
       <c r="D127" s="2"/>
     </row>
@@ -6984,8 +6970,8 @@
       <c r="B128" t="s">
         <v>224</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>822</v>
+      <c r="C128" s="38" t="s">
+        <v>805</v>
       </c>
       <c r="D128" s="2"/>
     </row>
@@ -6996,8 +6982,8 @@
       <c r="B129" t="s">
         <v>226</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>823</v>
+      <c r="C129" s="38" t="s">
+        <v>806</v>
       </c>
       <c r="D129" s="2"/>
     </row>
@@ -7008,8 +6994,8 @@
       <c r="B130" t="s">
         <v>228</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>824</v>
+      <c r="C130" s="38" t="s">
+        <v>807</v>
       </c>
       <c r="D130" s="2"/>
     </row>
@@ -7020,8 +7006,8 @@
       <c r="B131" t="s">
         <v>230</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>825</v>
+      <c r="C131" s="38" t="s">
+        <v>808</v>
       </c>
       <c r="D131" s="2"/>
     </row>
@@ -7032,61 +7018,61 @@
       <c r="B132" t="s">
         <v>232</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>826</v>
+      <c r="C132" s="38" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B133" t="s">
-        <v>590</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>827</v>
+        <v>573</v>
+      </c>
+      <c r="C133" s="38" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="7" t="s">
-        <v>830</v>
+      <c r="A134" s="4" t="s">
+        <v>813</v>
       </c>
       <c r="B134" t="s">
-        <v>829</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>828</v>
+        <v>812</v>
+      </c>
+      <c r="C134" s="38" t="s">
+        <v>811</v>
       </c>
       <c r="D134" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>833</v>
+      <c r="A135" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>816</v>
       </c>
       <c r="D135" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="24" t="s">
-        <v>835</v>
-      </c>
-      <c r="B136" s="24" t="s">
-        <v>836</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>837</v>
+      <c r="A136" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>820</v>
       </c>
       <c r="D136" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -7096,8 +7082,8 @@
       <c r="B137" t="s">
         <v>235</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>839</v>
+      <c r="C137" s="38" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -7107,8 +7093,8 @@
       <c r="B138" t="s">
         <v>237</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>840</v>
+      <c r="C138" s="38" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -7118,8 +7104,8 @@
       <c r="B139" t="s">
         <v>239</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>841</v>
+      <c r="C139" s="38" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -7129,8 +7115,8 @@
       <c r="B140" t="s">
         <v>241</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>842</v>
+      <c r="C140" s="38" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -7140,8 +7126,8 @@
       <c r="B141" t="s">
         <v>243</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>843</v>
+      <c r="C141" s="38" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -7151,8 +7137,8 @@
       <c r="B142" t="s">
         <v>245</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>844</v>
+      <c r="C142" s="38" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -7162,8 +7148,8 @@
       <c r="B143" t="s">
         <v>247</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>845</v>
+      <c r="C143" s="38" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -7173,19 +7159,19 @@
       <c r="B144" t="s">
         <v>249</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>846</v>
+      <c r="C144" s="38" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="B145" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>847</v>
+      <c r="C145" s="38" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -7195,8 +7181,8 @@
       <c r="B146" t="s">
         <v>253</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>848</v>
+      <c r="C146" s="38" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -7206,19 +7192,19 @@
       <c r="B147" t="s">
         <v>255</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>849</v>
+      <c r="C147" s="38" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="8">
+      <c r="A148" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>850</v>
+      <c r="C148" s="38" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -7228,8 +7214,8 @@
       <c r="B149" t="s">
         <v>257</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>851</v>
+      <c r="C149" s="38" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -7239,8 +7225,8 @@
       <c r="B150" t="s">
         <v>259</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>852</v>
+      <c r="C150" s="38" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -7250,22 +7236,22 @@
       <c r="B151" t="s">
         <v>261</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="30" t="s">
+      <c r="C151" s="38" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="B152" s="31" t="s">
+      <c r="B152" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C152" s="32" t="s">
-        <v>864</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>865</v>
+      <c r="C152" s="39" t="s">
+        <v>847</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -7275,11 +7261,11 @@
       <c r="B153" t="s">
         <v>265</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>854</v>
+      <c r="C153" s="38" t="s">
+        <v>837</v>
       </c>
       <c r="D153" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -7289,11 +7275,11 @@
       <c r="B154" t="s">
         <v>267</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>856</v>
+      <c r="C154" s="38" t="s">
+        <v>839</v>
       </c>
       <c r="D154" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -7303,11 +7289,11 @@
       <c r="B155" t="s">
         <v>269</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>858</v>
+      <c r="C155" s="38" t="s">
+        <v>841</v>
       </c>
       <c r="D155" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -7317,11 +7303,11 @@
       <c r="B156" t="s">
         <v>271</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>860</v>
+      <c r="C156" s="38" t="s">
+        <v>843</v>
       </c>
       <c r="D156" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -7331,251 +7317,251 @@
       <c r="B157" t="s">
         <v>272</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>862</v>
+      <c r="C157" s="38" t="s">
+        <v>845</v>
       </c>
       <c r="D157" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="B158" t="s">
-        <v>591</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>866</v>
+        <v>574</v>
+      </c>
+      <c r="C158" s="38" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="B159" t="s">
-        <v>592</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="B160" s="31" t="s">
-        <v>593</v>
-      </c>
-      <c r="C160" s="35" t="s">
-        <v>878</v>
-      </c>
-      <c r="D160" s="36" t="s">
-        <v>879</v>
+        <v>575</v>
+      </c>
+      <c r="C159" s="38" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="B160" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C160" s="39" t="s">
+        <v>861</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="B161" t="s">
-        <v>594</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>868</v>
+        <v>577</v>
+      </c>
+      <c r="C161" s="38" t="s">
+        <v>851</v>
       </c>
       <c r="D161" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="B162" t="s">
-        <v>598</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>869</v>
+        <v>581</v>
+      </c>
+      <c r="C162" s="38" t="s">
+        <v>852</v>
       </c>
       <c r="D162" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="B163" t="s">
-        <v>595</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>870</v>
+        <v>578</v>
+      </c>
+      <c r="C163" s="38" t="s">
+        <v>853</v>
       </c>
       <c r="D163" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="B164" t="s">
-        <v>596</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>871</v>
+        <v>579</v>
+      </c>
+      <c r="C164" s="38" t="s">
+        <v>854</v>
       </c>
       <c r="D164" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B165" t="s">
+        <v>580</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="D165" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C166" s="38" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="B168" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="C168" s="39" t="s">
+        <v>879</v>
+      </c>
+      <c r="D168" s="29" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>865</v>
+      </c>
+      <c r="D169" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>867</v>
+      </c>
+      <c r="D170" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>869</v>
+      </c>
+      <c r="D171" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C172" s="38" t="s">
+        <v>871</v>
+      </c>
+      <c r="D172" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C173" s="38" t="s">
+        <v>873</v>
+      </c>
+      <c r="D173" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C174" s="38" t="s">
+        <v>875</v>
+      </c>
+      <c r="D174" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B165" t="s">
-        <v>597</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="B175" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C175" s="38" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="37" t="s">
-        <v>610</v>
-      </c>
-      <c r="B168" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C168" s="32" t="s">
-        <v>896</v>
-      </c>
-      <c r="D168" s="36" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="D169" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="D170" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="D171" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="D172" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="D173" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="D174" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>894</v>
-      </c>
       <c r="D175" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -7585,30 +7571,30 @@
       <c r="B176" t="s">
         <v>274</v>
       </c>
-      <c r="C176" s="6" t="s">
-        <v>897</v>
+      <c r="C176" s="38" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C177" s="6" t="s">
-        <v>898</v>
+      <c r="C177" s="38" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>899</v>
+      <c r="C178" s="38" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -7618,41 +7604,41 @@
       <c r="B179" t="s">
         <v>280</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>900</v>
+      <c r="C179" s="38" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>901</v>
+      <c r="C180" s="38" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>902</v>
+      <c r="C181" s="38" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C182" s="6" t="s">
-        <v>903</v>
+      <c r="C182" s="38" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -7662,8 +7648,8 @@
       <c r="B183" t="s">
         <v>288</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>904</v>
+      <c r="C183" s="38" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -7673,8 +7659,8 @@
       <c r="B184" t="s">
         <v>290</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>905</v>
+      <c r="C184" s="38" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -7684,8 +7670,8 @@
       <c r="B185" t="s">
         <v>292</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>906</v>
+      <c r="C185" s="38" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -7695,30 +7681,30 @@
       <c r="B186" t="s">
         <v>294</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>907</v>
+      <c r="C186" s="38" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>908</v>
+      <c r="C187" s="38" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="8" t="s">
+      <c r="A188" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>909</v>
+      <c r="C188" s="38" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -7728,8 +7714,8 @@
       <c r="B189" t="s">
         <v>300</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>910</v>
+      <c r="C189" s="38" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -7739,8 +7725,8 @@
       <c r="B190" t="s">
         <v>302</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>911</v>
+      <c r="C190" s="38" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -7750,8 +7736,8 @@
       <c r="B191" t="s">
         <v>304</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>912</v>
+      <c r="C191" s="38" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -7761,8 +7747,8 @@
       <c r="B192" t="s">
         <v>306</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>913</v>
+      <c r="C192" s="38" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -7772,8 +7758,8 @@
       <c r="B193" t="s">
         <v>308</v>
       </c>
-      <c r="C193" s="6" t="s">
-        <v>914</v>
+      <c r="C193" s="38" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -7783,8 +7769,8 @@
       <c r="B194" t="s">
         <v>310</v>
       </c>
-      <c r="C194" s="6" t="s">
-        <v>915</v>
+      <c r="C194" s="38" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -7794,8 +7780,8 @@
       <c r="B195" t="s">
         <v>312</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>916</v>
+      <c r="C195" s="38" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -7805,8 +7791,8 @@
       <c r="B196" t="s">
         <v>314</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>917</v>
+      <c r="C196" s="38" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -7816,8 +7802,8 @@
       <c r="B197" t="s">
         <v>316</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>918</v>
+      <c r="C197" s="38" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -7827,8 +7813,8 @@
       <c r="B198" t="s">
         <v>318</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>919</v>
+      <c r="C198" s="38" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -7838,8 +7824,8 @@
       <c r="B199" t="s">
         <v>320</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>920</v>
+      <c r="C199" s="38" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -7849,8 +7835,8 @@
       <c r="B200" t="s">
         <v>322</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>921</v>
+      <c r="C200" s="38" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -7860,8 +7846,8 @@
       <c r="B201" t="s">
         <v>324</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>922</v>
+      <c r="C201" s="38" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -7871,8 +7857,8 @@
       <c r="B202" t="s">
         <v>326</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>923</v>
+      <c r="C202" s="38" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -7882,8 +7868,8 @@
       <c r="B203" t="s">
         <v>328</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>924</v>
+      <c r="C203" s="38" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -7893,8 +7879,8 @@
       <c r="B204" t="s">
         <v>330</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>925</v>
+      <c r="C204" s="38" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -7904,8 +7890,8 @@
       <c r="B205" t="s">
         <v>332</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>926</v>
+      <c r="C205" s="38" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -7915,8 +7901,8 @@
       <c r="B206" t="s">
         <v>334</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>927</v>
+      <c r="C206" s="38" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -7926,8 +7912,8 @@
       <c r="B207" t="s">
         <v>336</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>928</v>
+      <c r="C207" s="38" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -7937,8 +7923,8 @@
       <c r="B208" t="s">
         <v>338</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>929</v>
+      <c r="C208" s="38" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -7948,8 +7934,8 @@
       <c r="B209" t="s">
         <v>340</v>
       </c>
-      <c r="C209" s="6" t="s">
-        <v>930</v>
+      <c r="C209" s="38" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -7959,8 +7945,8 @@
       <c r="B210" t="s">
         <v>344</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>931</v>
+      <c r="C210" s="38" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -7970,8 +7956,8 @@
       <c r="B211" t="s">
         <v>346</v>
       </c>
-      <c r="C211" s="6" t="s">
-        <v>932</v>
+      <c r="C211" s="38" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -7981,8 +7967,8 @@
       <c r="B212" t="s">
         <v>348</v>
       </c>
-      <c r="C212" s="6" t="s">
-        <v>933</v>
+      <c r="C212" s="38" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -7992,3397 +7978,3397 @@
       <c r="B213" t="s">
         <v>342</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="B214" s="39" t="s">
-        <v>626</v>
-      </c>
-      <c r="C214" s="32" t="s">
-        <v>952</v>
-      </c>
-      <c r="D214" s="33" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="B215" s="39" t="s">
-        <v>628</v>
-      </c>
-      <c r="C215" s="32" t="s">
-        <v>953</v>
-      </c>
-      <c r="D215" s="33" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="38" t="s">
-        <v>629</v>
-      </c>
-      <c r="B216" s="39" t="s">
-        <v>630</v>
-      </c>
-      <c r="C216" s="32" t="s">
-        <v>955</v>
-      </c>
-      <c r="D216" s="33" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="B217" s="39" t="s">
-        <v>632</v>
-      </c>
-      <c r="C217" s="32" t="s">
-        <v>956</v>
-      </c>
-      <c r="D217" s="33" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="38" t="s">
-        <v>633</v>
-      </c>
-      <c r="B218" s="39" t="s">
-        <v>634</v>
-      </c>
-      <c r="C218" s="32" t="s">
-        <v>957</v>
-      </c>
-      <c r="D218" s="33" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="B219" s="39" t="s">
-        <v>636</v>
-      </c>
-      <c r="C219" s="32" t="s">
-        <v>958</v>
-      </c>
-      <c r="D219" s="33" t="s">
-        <v>954</v>
+      <c r="C213" s="38" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="B214" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="C214" s="39" t="s">
+        <v>935</v>
+      </c>
+      <c r="D214" s="27" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="B215" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="C215" s="39" t="s">
+        <v>936</v>
+      </c>
+      <c r="D215" s="27" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="B216" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="C216" s="39" t="s">
+        <v>938</v>
+      </c>
+      <c r="D216" s="27" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="B217" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="C217" s="39" t="s">
+        <v>939</v>
+      </c>
+      <c r="D217" s="27" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="B218" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C218" s="39" t="s">
+        <v>940</v>
+      </c>
+      <c r="D218" s="27" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="B219" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="C219" s="39" t="s">
+        <v>941</v>
+      </c>
+      <c r="D219" s="27" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" s="27" t="s">
+      <c r="A220" s="22" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B220" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="B220" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>935</v>
+      <c r="C220" s="38" t="s">
+        <v>918</v>
       </c>
       <c r="D220" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="40" t="s">
-        <v>358</v>
+      <c r="A221" s="33" t="s">
+        <v>357</v>
       </c>
       <c r="B221" t="s">
-        <v>937</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>936</v>
+        <v>920</v>
+      </c>
+      <c r="C221" s="38" t="s">
+        <v>919</v>
       </c>
       <c r="D221" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B222" t="s">
-        <v>351</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>940</v>
+        <v>350</v>
+      </c>
+      <c r="C222" s="38" t="s">
+        <v>923</v>
       </c>
       <c r="D222" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B223" t="s">
-        <v>352</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>941</v>
+        <v>351</v>
+      </c>
+      <c r="C223" s="38" t="s">
+        <v>924</v>
       </c>
       <c r="D223" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B224" t="s">
-        <v>943</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>942</v>
+        <v>926</v>
+      </c>
+      <c r="C224" s="38" t="s">
+        <v>925</v>
       </c>
       <c r="D224" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B225" t="s">
-        <v>353</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>944</v>
+        <v>352</v>
+      </c>
+      <c r="C225" s="38" t="s">
+        <v>927</v>
       </c>
       <c r="D225" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B226" t="s">
-        <v>355</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>948</v>
+        <v>354</v>
+      </c>
+      <c r="C226" s="38" t="s">
+        <v>931</v>
       </c>
       <c r="D226" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B227" t="s">
-        <v>356</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>950</v>
+        <v>355</v>
+      </c>
+      <c r="C227" s="38" t="s">
+        <v>933</v>
       </c>
       <c r="D227" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="B228" t="s">
-        <v>357</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>960</v>
+        <v>356</v>
+      </c>
+      <c r="C228" s="38" t="s">
+        <v>943</v>
       </c>
       <c r="D228" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="B229" t="s">
-        <v>359</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>985</v>
+        <v>358</v>
+      </c>
+      <c r="C229" s="38" t="s">
+        <v>968</v>
       </c>
       <c r="D229" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="B230" t="s">
-        <v>361</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>986</v>
+        <v>360</v>
+      </c>
+      <c r="C230" s="38" t="s">
+        <v>969</v>
       </c>
       <c r="D230" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="B231" t="s">
-        <v>363</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>987</v>
+        <v>362</v>
+      </c>
+      <c r="C231" s="38" t="s">
+        <v>970</v>
       </c>
       <c r="D231" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="B232" t="s">
-        <v>365</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>988</v>
+        <v>364</v>
+      </c>
+      <c r="C232" s="38" t="s">
+        <v>971</v>
       </c>
       <c r="D232" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="B233" t="s">
-        <v>367</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>989</v>
+        <v>366</v>
+      </c>
+      <c r="C233" s="38" t="s">
+        <v>972</v>
       </c>
       <c r="D233" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="B234" t="s">
-        <v>369</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>990</v>
+        <v>368</v>
+      </c>
+      <c r="C234" s="38" t="s">
+        <v>973</v>
       </c>
       <c r="D234" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="B235" t="s">
-        <v>371</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>991</v>
+        <v>370</v>
+      </c>
+      <c r="C235" s="38" t="s">
+        <v>974</v>
       </c>
       <c r="D235" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="B236" t="s">
-        <v>372</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>992</v>
+        <v>371</v>
+      </c>
+      <c r="C236" s="38" t="s">
+        <v>975</v>
       </c>
       <c r="D236" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="B237" t="s">
-        <v>373</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>993</v>
+        <v>372</v>
+      </c>
+      <c r="C237" s="38" t="s">
+        <v>976</v>
       </c>
       <c r="D237" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="B238" t="s">
-        <v>374</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>994</v>
+        <v>373</v>
+      </c>
+      <c r="C238" s="38" t="s">
+        <v>977</v>
       </c>
       <c r="D238" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B239" t="s">
+        <v>374</v>
+      </c>
+      <c r="C239" s="38" t="s">
+        <v>978</v>
+      </c>
+      <c r="D239" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="35" t="s">
+        <v>981</v>
+      </c>
+      <c r="B240" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="C240" s="40" t="s">
+        <v>979</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="C241" s="40" t="s">
         <v>984</v>
       </c>
-      <c r="B239" t="s">
-        <v>375</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="D239" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="42" t="s">
-        <v>998</v>
-      </c>
-      <c r="B240" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>996</v>
-      </c>
-      <c r="D240" s="10" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="B241" s="10" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C241" s="17" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D241" s="10" t="s">
-        <v>938</v>
-      </c>
-      <c r="E241" s="16"/>
+      <c r="D241" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="E241" s="12"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="B242" t="s">
-        <v>377</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>1002</v>
+        <v>376</v>
+      </c>
+      <c r="C242" s="38" t="s">
+        <v>985</v>
       </c>
       <c r="D242" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="B243" t="s">
-        <v>378</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>1004</v>
+        <v>377</v>
+      </c>
+      <c r="C243" s="38" t="s">
+        <v>987</v>
       </c>
       <c r="D243" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="B244" t="s">
-        <v>379</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>1006</v>
+        <v>378</v>
+      </c>
+      <c r="C244" s="38" t="s">
+        <v>989</v>
       </c>
       <c r="D244" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="B245" t="s">
-        <v>380</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>1013</v>
+        <v>379</v>
+      </c>
+      <c r="C245" s="38" t="s">
+        <v>996</v>
       </c>
       <c r="D245" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="B246" t="s">
-        <v>381</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>1016</v>
+        <v>380</v>
+      </c>
+      <c r="C246" s="38" t="s">
+        <v>999</v>
       </c>
       <c r="D246" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="B247" t="s">
-        <v>382</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>1017</v>
+        <v>381</v>
+      </c>
+      <c r="C247" s="38" t="s">
+        <v>1000</v>
       </c>
       <c r="D247" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="B248" t="s">
-        <v>383</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>1023</v>
+        <v>382</v>
+      </c>
+      <c r="C248" s="38" t="s">
+        <v>1006</v>
       </c>
       <c r="D248" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="B249" t="s">
-        <v>384</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>1024</v>
+        <v>383</v>
+      </c>
+      <c r="C249" s="38" t="s">
+        <v>1007</v>
       </c>
       <c r="D249" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="B250" t="s">
-        <v>385</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>1025</v>
+        <v>384</v>
+      </c>
+      <c r="C250" s="38" t="s">
+        <v>1008</v>
       </c>
       <c r="D250" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="B251" t="s">
-        <v>386</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>1029</v>
+        <v>385</v>
+      </c>
+      <c r="C251" s="38" t="s">
+        <v>1012</v>
       </c>
       <c r="D251" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="B252" t="s">
-        <v>387</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>1032</v>
+        <v>386</v>
+      </c>
+      <c r="C252" s="38" t="s">
+        <v>1015</v>
       </c>
       <c r="D252" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="B253" t="s">
-        <v>388</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>1035</v>
+        <v>387</v>
+      </c>
+      <c r="C253" s="38" t="s">
+        <v>1018</v>
       </c>
       <c r="D253" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="B254" t="s">
-        <v>389</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>1040</v>
+        <v>388</v>
+      </c>
+      <c r="C254" s="38" t="s">
+        <v>1023</v>
       </c>
       <c r="D254" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="B255" t="s">
-        <v>390</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>1041</v>
+        <v>389</v>
+      </c>
+      <c r="C255" s="38" t="s">
+        <v>1024</v>
       </c>
       <c r="D255" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="B256" t="s">
-        <v>391</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>1046</v>
+        <v>390</v>
+      </c>
+      <c r="C256" s="38" t="s">
+        <v>1029</v>
       </c>
       <c r="D256" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="B257" t="s">
-        <v>392</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>1047</v>
+        <v>391</v>
+      </c>
+      <c r="C257" s="38" t="s">
+        <v>1030</v>
       </c>
       <c r="D257" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="B258" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>1063</v>
+        <v>1047</v>
+      </c>
+      <c r="C258" s="38" t="s">
+        <v>1046</v>
       </c>
       <c r="D258" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="B259" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>1066</v>
+        <v>1048</v>
+      </c>
+      <c r="C259" s="38" t="s">
+        <v>1049</v>
       </c>
       <c r="D259" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="B260" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>1067</v>
+        <v>1051</v>
+      </c>
+      <c r="C260" s="38" t="s">
+        <v>1050</v>
       </c>
       <c r="D260" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="B261" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>1069</v>
+        <v>1053</v>
+      </c>
+      <c r="C261" s="38" t="s">
+        <v>1052</v>
       </c>
       <c r="D261" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="B262" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>1071</v>
+        <v>1055</v>
+      </c>
+      <c r="C262" s="38" t="s">
+        <v>1054</v>
       </c>
       <c r="D262" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="B263" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>1073</v>
+        <v>1057</v>
+      </c>
+      <c r="C263" s="38" t="s">
+        <v>1056</v>
       </c>
       <c r="D263" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="B264" t="s">
-        <v>354</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>1075</v>
+        <v>353</v>
+      </c>
+      <c r="C264" s="38" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="B265" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>1077</v>
+        <v>1059</v>
+      </c>
+      <c r="C265" s="38" t="s">
+        <v>1060</v>
       </c>
       <c r="D265" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="B266" t="s">
-        <v>393</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>1050</v>
+        <v>392</v>
+      </c>
+      <c r="C266" s="38" t="s">
+        <v>1033</v>
       </c>
       <c r="D266" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="B267" t="s">
-        <v>394</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>1052</v>
+        <v>393</v>
+      </c>
+      <c r="C267" s="38" t="s">
+        <v>1035</v>
       </c>
       <c r="D267" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="B268" t="s">
-        <v>395</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>1078</v>
+        <v>394</v>
+      </c>
+      <c r="C268" s="38" t="s">
+        <v>1061</v>
       </c>
       <c r="D268" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B269" t="s">
+        <v>395</v>
+      </c>
+      <c r="C269" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C270" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C271" s="38" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C272" s="41" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C273" s="41" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C274" s="41" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" s="8" t="s">
         <v>1083</v>
       </c>
-      <c r="B269" t="s">
-        <v>396</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D269" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B270" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="C270" s="6" t="s">
+      <c r="B275" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C275" s="41" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" s="8" t="s">
         <v>1084</v>
       </c>
-      <c r="D270" t="s">
+      <c r="B276" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C276" s="41" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" s="10" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="7" t="s">
+      <c r="B277" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C277" s="41" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="B271" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D271" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="11" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B272" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="C272" s="13" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D272" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" s="11" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B273" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D273" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="11" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B274" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D274" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="11" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B275" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="C275" s="13" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D275" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B276" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="C276" s="13" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D276" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="14" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B277" s="15" t="s">
+      <c r="B278" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C277" s="13" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D277" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="11" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B278" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="C278" s="13" t="s">
-        <v>1095</v>
+      <c r="C278" s="41" t="s">
+        <v>1078</v>
       </c>
       <c r="D278" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="B279" t="s">
-        <v>404</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>1109</v>
+        <v>403</v>
+      </c>
+      <c r="C279" s="38" t="s">
+        <v>1092</v>
       </c>
       <c r="D279" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="B280" t="s">
-        <v>405</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>1112</v>
+        <v>404</v>
+      </c>
+      <c r="C280" s="38" t="s">
+        <v>1095</v>
       </c>
       <c r="D280" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="B281" t="s">
-        <v>406</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>1115</v>
+        <v>405</v>
+      </c>
+      <c r="C281" s="38" t="s">
+        <v>1098</v>
       </c>
       <c r="D281" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
       <c r="B282" t="s">
-        <v>407</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>1118</v>
+        <v>406</v>
+      </c>
+      <c r="C282" s="38" t="s">
+        <v>1101</v>
       </c>
       <c r="D282" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="B283" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>1121</v>
+        <v>1105</v>
+      </c>
+      <c r="C283" s="38" t="s">
+        <v>1104</v>
       </c>
       <c r="D283" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="B284" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>1125</v>
+        <v>1109</v>
+      </c>
+      <c r="C284" s="38" t="s">
+        <v>1108</v>
       </c>
       <c r="D284" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="B285" t="s">
-        <v>408</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>1127</v>
+        <v>407</v>
+      </c>
+      <c r="C285" s="38" t="s">
+        <v>1110</v>
       </c>
       <c r="D285" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B286" t="s">
+        <v>408</v>
+      </c>
+      <c r="C286" s="38" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B287" t="s">
+        <v>409</v>
+      </c>
+      <c r="C287" s="38" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B288" t="s">
+        <v>410</v>
+      </c>
+      <c r="C288" s="38" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B289" t="s">
+        <v>411</v>
+      </c>
+      <c r="C289" s="38" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B290" t="s">
+        <v>412</v>
+      </c>
+      <c r="C290" s="38" t="s">
         <v>1132</v>
       </c>
-      <c r="B286" t="s">
-        <v>409</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B287" t="s">
-        <v>411</v>
-      </c>
-      <c r="C287" s="6" t="s">
+      <c r="D290" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B291" t="s">
+        <v>413</v>
+      </c>
+      <c r="C291" s="38" t="s">
         <v>1133</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D291" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B292" t="s">
+        <v>414</v>
+      </c>
+      <c r="C292" s="38" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B288" t="s">
-        <v>413</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D288" t="s">
+      <c r="D292" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B293" t="s">
+        <v>415</v>
+      </c>
+      <c r="C293" s="38" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B289" t="s">
-        <v>415</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D289" t="s">
+      <c r="D293" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B294" t="s">
+        <v>416</v>
+      </c>
+      <c r="C294" s="38" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B290" t="s">
+      <c r="D294" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B295" t="s">
         <v>417</v>
       </c>
-      <c r="C290" s="6" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D290" t="s">
+      <c r="C295" s="38" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B296" t="s">
+        <v>418</v>
+      </c>
+      <c r="C296" s="38" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B291" t="s">
+      <c r="D296" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B297" t="s">
         <v>419</v>
       </c>
-      <c r="C291" s="6" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D291" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="2" t="s">
+      <c r="C297" s="38" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B298" t="s">
         <v>420</v>
       </c>
-      <c r="B292" t="s">
+      <c r="C298" s="38" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B299" t="s">
         <v>421</v>
       </c>
-      <c r="C292" s="6" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D292" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B293" t="s">
-        <v>423</v>
-      </c>
-      <c r="C293" s="6" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D293" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B294" t="s">
-        <v>425</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D294" t="s">
+      <c r="C299" s="38" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B295" t="s">
-        <v>427</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D295" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B296" t="s">
-        <v>429</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D296" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B297" t="s">
-        <v>431</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D297" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B298" t="s">
-        <v>433</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D298" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B299" t="s">
-        <v>435</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>1158</v>
-      </c>
       <c r="D299" t="s">
-        <v>1146</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
       <c r="B300" t="s">
-        <v>436</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>1159</v>
+        <v>422</v>
+      </c>
+      <c r="C300" s="38" t="s">
+        <v>1142</v>
       </c>
       <c r="D300" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="B301" t="s">
-        <v>437</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>1162</v>
+        <v>423</v>
+      </c>
+      <c r="C301" s="38" t="s">
+        <v>1145</v>
       </c>
       <c r="D301" t="s">
-        <v>1163</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
-        <v>1165</v>
+        <v>1148</v>
       </c>
       <c r="B302" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>1175</v>
+        <v>1156</v>
+      </c>
+      <c r="C302" s="38" t="s">
+        <v>1158</v>
       </c>
       <c r="D302" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
-        <v>1166</v>
+        <v>1149</v>
       </c>
       <c r="B303" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>1174</v>
+        <v>1159</v>
+      </c>
+      <c r="C303" s="38" t="s">
+        <v>1157</v>
       </c>
       <c r="D303" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
-        <v>1167</v>
+        <v>1150</v>
       </c>
       <c r="B304" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>1178</v>
+        <v>1160</v>
+      </c>
+      <c r="C304" s="38" t="s">
+        <v>1161</v>
       </c>
       <c r="D304" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
-        <v>1168</v>
+        <v>1151</v>
       </c>
       <c r="B305" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>1179</v>
+        <v>1167</v>
+      </c>
+      <c r="C305" s="38" t="s">
+        <v>1162</v>
       </c>
       <c r="D305" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
-        <v>1169</v>
+        <v>1152</v>
       </c>
       <c r="B306" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>1180</v>
+        <v>1168</v>
+      </c>
+      <c r="C306" s="38" t="s">
+        <v>1163</v>
       </c>
       <c r="D306" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
-        <v>1170</v>
+        <v>1153</v>
       </c>
       <c r="B307" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>1181</v>
+        <v>1169</v>
+      </c>
+      <c r="C307" s="38" t="s">
+        <v>1164</v>
       </c>
       <c r="D307" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="B308" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>1182</v>
+        <v>1170</v>
+      </c>
+      <c r="C308" s="38" t="s">
+        <v>1165</v>
       </c>
       <c r="D308" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
-        <v>1172</v>
+        <v>1155</v>
       </c>
       <c r="B309" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C309" s="6" t="s">
-        <v>1183</v>
+        <v>1171</v>
+      </c>
+      <c r="C309" s="38" t="s">
+        <v>1166</v>
       </c>
       <c r="D309" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="B310" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>1192</v>
+        <v>1174</v>
+      </c>
+      <c r="C310" s="38" t="s">
+        <v>1175</v>
       </c>
       <c r="D310" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="B311" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>1194</v>
+        <v>1176</v>
+      </c>
+      <c r="C311" s="38" t="s">
+        <v>1177</v>
       </c>
       <c r="D311" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="B312" t="s">
-        <v>438</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>1195</v>
+        <v>424</v>
+      </c>
+      <c r="C312" s="38" t="s">
+        <v>1178</v>
       </c>
       <c r="D312" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="B313" t="s">
-        <v>439</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>1198</v>
+        <v>425</v>
+      </c>
+      <c r="C313" s="38" t="s">
+        <v>1181</v>
       </c>
       <c r="D313" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="B314" t="s">
-        <v>440</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>1201</v>
+        <v>426</v>
+      </c>
+      <c r="C314" s="38" t="s">
+        <v>1184</v>
       </c>
       <c r="D314" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="B315" t="s">
-        <v>441</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>1212</v>
+        <v>427</v>
+      </c>
+      <c r="C315" s="38" t="s">
+        <v>1195</v>
       </c>
       <c r="D315" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="B316" t="s">
-        <v>442</v>
-      </c>
-      <c r="C316" s="6" t="s">
-        <v>1213</v>
+        <v>428</v>
+      </c>
+      <c r="C316" s="38" t="s">
+        <v>1196</v>
       </c>
       <c r="D316" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="B317" t="s">
-        <v>443</v>
-      </c>
-      <c r="C317" s="6" t="s">
-        <v>1214</v>
+        <v>429</v>
+      </c>
+      <c r="C317" s="38" t="s">
+        <v>1197</v>
       </c>
       <c r="D317" t="s">
-        <v>1209</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
-        <v>1221</v>
+        <v>1204</v>
       </c>
       <c r="B318" t="s">
-        <v>444</v>
-      </c>
-      <c r="C318" s="6" t="s">
-        <v>1215</v>
+        <v>430</v>
+      </c>
+      <c r="C318" s="38" t="s">
+        <v>1198</v>
       </c>
       <c r="D318" t="s">
-        <v>1210</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
-        <v>1222</v>
+        <v>1205</v>
       </c>
       <c r="B319" t="s">
-        <v>445</v>
-      </c>
-      <c r="C319" s="6" t="s">
-        <v>1216</v>
+        <v>431</v>
+      </c>
+      <c r="C319" s="38" t="s">
+        <v>1199</v>
       </c>
       <c r="D319" t="s">
-        <v>1211</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
-        <v>1224</v>
+        <v>1207</v>
       </c>
       <c r="B320" t="s">
-        <v>446</v>
-      </c>
-      <c r="C320" s="6" t="s">
-        <v>1223</v>
+        <v>432</v>
+      </c>
+      <c r="C320" s="38" t="s">
+        <v>1206</v>
       </c>
       <c r="D320" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B321" t="s">
-        <v>448</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>1225</v>
+        <v>434</v>
+      </c>
+      <c r="C321" s="38" t="s">
+        <v>1208</v>
       </c>
       <c r="D321" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="B322" t="s">
-        <v>449</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>1226</v>
+        <v>435</v>
+      </c>
+      <c r="C322" s="38" t="s">
+        <v>1209</v>
       </c>
       <c r="D322" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
-        <v>1231</v>
+        <v>1214</v>
       </c>
       <c r="B323" t="s">
-        <v>450</v>
-      </c>
-      <c r="C323" s="6" t="s">
-        <v>1229</v>
+        <v>436</v>
+      </c>
+      <c r="C323" s="38" t="s">
+        <v>1212</v>
       </c>
       <c r="D323" t="s">
-        <v>1230</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="B324" t="s">
-        <v>451</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>1234</v>
+        <v>437</v>
+      </c>
+      <c r="C324" s="38" t="s">
+        <v>1217</v>
       </c>
       <c r="D324" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="B325" t="s">
-        <v>452</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>1236</v>
+        <v>438</v>
+      </c>
+      <c r="C325" s="38" t="s">
+        <v>1219</v>
       </c>
       <c r="D325" t="s">
-        <v>1237</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="B326" t="s">
-        <v>453</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>1238</v>
+        <v>439</v>
+      </c>
+      <c r="C326" s="38" t="s">
+        <v>1221</v>
       </c>
       <c r="D326" t="s">
-        <v>1239</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="B327" t="s">
-        <v>454</v>
-      </c>
-      <c r="C327" s="6" t="s">
-        <v>1242</v>
+        <v>440</v>
+      </c>
+      <c r="C327" s="38" t="s">
+        <v>1225</v>
       </c>
       <c r="D327" t="s">
-        <v>1243</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A328" s="16" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="C328" s="17" t="s">
-        <v>1244</v>
+      <c r="A328" s="12" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C328" s="40" t="s">
+        <v>1227</v>
       </c>
       <c r="D328" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="16" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B329" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C329" s="17" t="s">
-        <v>1245</v>
+      <c r="A329" s="12" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C329" s="40" t="s">
+        <v>1228</v>
       </c>
       <c r="D329" t="s">
-        <v>1208</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A330" s="8" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B330" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>1248</v>
+      <c r="A330" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C330" s="38" t="s">
+        <v>1231</v>
       </c>
       <c r="D330" t="s">
-        <v>1249</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
-        <v>1253</v>
+        <v>1236</v>
       </c>
       <c r="B331" t="s">
-        <v>458</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>1251</v>
+        <v>444</v>
+      </c>
+      <c r="C331" s="38" t="s">
+        <v>1234</v>
       </c>
       <c r="D331" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B332" t="s">
-        <v>459</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>1254</v>
+        <v>445</v>
+      </c>
+      <c r="C332" s="38" t="s">
+        <v>1237</v>
       </c>
       <c r="D332" t="s">
-        <v>1255</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
-        <v>1258</v>
+        <v>1241</v>
       </c>
       <c r="B333" t="s">
-        <v>460</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>1256</v>
+        <v>446</v>
+      </c>
+      <c r="C333" s="38" t="s">
+        <v>1239</v>
       </c>
       <c r="D333" t="s">
-        <v>1257</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
-        <v>1261</v>
+        <v>1244</v>
       </c>
       <c r="B334" t="s">
-        <v>461</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>1259</v>
+        <v>447</v>
+      </c>
+      <c r="C334" s="38" t="s">
+        <v>1242</v>
       </c>
       <c r="D334" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
-        <v>1262</v>
+        <v>1245</v>
       </c>
       <c r="B335" t="s">
-        <v>462</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>1264</v>
+        <v>448</v>
+      </c>
+      <c r="C335" s="38" t="s">
+        <v>1247</v>
       </c>
       <c r="D335" t="s">
-        <v>1263</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
-        <v>1267</v>
+        <v>1250</v>
       </c>
       <c r="B336" t="s">
-        <v>464</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>1265</v>
+        <v>450</v>
+      </c>
+      <c r="C336" s="38" t="s">
+        <v>1248</v>
       </c>
       <c r="D336" t="s">
-        <v>1266</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="B337" t="s">
-        <v>465</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>1268</v>
+        <v>451</v>
+      </c>
+      <c r="C337" s="38" t="s">
+        <v>1251</v>
       </c>
       <c r="D337" t="s">
-        <v>1269</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
-        <v>1273</v>
+        <v>1256</v>
       </c>
       <c r="B338" t="s">
-        <v>466</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>1271</v>
+        <v>452</v>
+      </c>
+      <c r="C338" s="38" t="s">
+        <v>1254</v>
       </c>
       <c r="D338" t="s">
-        <v>1272</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
-        <v>1274</v>
+        <v>1257</v>
       </c>
       <c r="B339" t="s">
-        <v>467</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>1276</v>
+        <v>453</v>
+      </c>
+      <c r="C339" s="38" t="s">
+        <v>1259</v>
       </c>
       <c r="D339" t="s">
-        <v>1275</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
-        <v>1279</v>
+        <v>1262</v>
       </c>
       <c r="B340" t="s">
-        <v>468</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>1278</v>
+        <v>454</v>
+      </c>
+      <c r="C340" s="38" t="s">
+        <v>1261</v>
       </c>
       <c r="D340" t="s">
-        <v>1277</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="B341" t="s">
-        <v>469</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>1280</v>
+        <v>455</v>
+      </c>
+      <c r="C341" s="38" t="s">
+        <v>1263</v>
       </c>
       <c r="D341" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
-        <v>1285</v>
+        <v>1268</v>
       </c>
       <c r="B342" t="s">
-        <v>470</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>1283</v>
+        <v>456</v>
+      </c>
+      <c r="C342" s="38" t="s">
+        <v>1266</v>
       </c>
       <c r="D342" t="s">
-        <v>1284</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="B343" t="s">
-        <v>471</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>1286</v>
+        <v>457</v>
+      </c>
+      <c r="C343" s="38" t="s">
+        <v>1269</v>
       </c>
       <c r="D343" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
-        <v>1290</v>
+        <v>1273</v>
       </c>
       <c r="B344" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>1289</v>
+        <v>1274</v>
+      </c>
+      <c r="C344" s="38" t="s">
+        <v>1272</v>
       </c>
       <c r="D344" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
-        <v>1293</v>
+        <v>1276</v>
       </c>
       <c r="B345" t="s">
-        <v>472</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>1561</v>
+        <v>458</v>
+      </c>
+      <c r="C345" s="38" t="s">
+        <v>1544</v>
       </c>
       <c r="D345" t="s">
-        <v>1292</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
-        <v>1296</v>
+        <v>1279</v>
       </c>
       <c r="B346" t="s">
-        <v>473</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>1294</v>
+        <v>459</v>
+      </c>
+      <c r="C346" s="38" t="s">
+        <v>1277</v>
       </c>
       <c r="D346" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="B347" t="s">
-        <v>474</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>1297</v>
+        <v>460</v>
+      </c>
+      <c r="C347" s="38" t="s">
+        <v>1280</v>
       </c>
       <c r="D347" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="B348" t="s">
-        <v>475</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>1300</v>
+        <v>461</v>
+      </c>
+      <c r="C348" s="38" t="s">
+        <v>1283</v>
       </c>
       <c r="D348" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="B349" t="s">
-        <v>476</v>
-      </c>
-      <c r="C349" s="6" t="s">
-        <v>1319</v>
+        <v>462</v>
+      </c>
+      <c r="C349" s="38" t="s">
+        <v>1302</v>
       </c>
       <c r="D349" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="B350" t="s">
-        <v>477</v>
-      </c>
-      <c r="C350" s="6" t="s">
-        <v>1320</v>
+        <v>463</v>
+      </c>
+      <c r="C350" s="38" t="s">
+        <v>1303</v>
       </c>
       <c r="D350" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="B351" t="s">
-        <v>478</v>
-      </c>
-      <c r="C351" s="6" t="s">
-        <v>1321</v>
+        <v>464</v>
+      </c>
+      <c r="C351" s="38" t="s">
+        <v>1304</v>
       </c>
       <c r="D351" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="B352" t="s">
-        <v>479</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>1322</v>
+        <v>465</v>
+      </c>
+      <c r="C352" s="38" t="s">
+        <v>1305</v>
       </c>
       <c r="D352" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="B353" t="s">
-        <v>480</v>
-      </c>
-      <c r="C353" s="6" t="s">
-        <v>1323</v>
+        <v>466</v>
+      </c>
+      <c r="C353" s="38" t="s">
+        <v>1306</v>
       </c>
       <c r="D353" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="B354" t="s">
-        <v>481</v>
-      </c>
-      <c r="C354" s="6" t="s">
-        <v>1324</v>
+        <v>467</v>
+      </c>
+      <c r="C354" s="38" t="s">
+        <v>1307</v>
       </c>
       <c r="D354" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="B355" t="s">
-        <v>482</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>1325</v>
+        <v>468</v>
+      </c>
+      <c r="C355" s="38" t="s">
+        <v>1308</v>
       </c>
       <c r="D355" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="B356" t="s">
-        <v>483</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>1326</v>
+        <v>469</v>
+      </c>
+      <c r="C356" s="38" t="s">
+        <v>1309</v>
       </c>
       <c r="D356" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="B357" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>1332</v>
+        <v>1314</v>
+      </c>
+      <c r="C357" s="38" t="s">
+        <v>1315</v>
       </c>
       <c r="D357" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="B358" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C358" s="6" t="s">
-        <v>1334</v>
+        <v>1318</v>
+      </c>
+      <c r="C358" s="38" t="s">
+        <v>1317</v>
       </c>
       <c r="D358" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
       <c r="B359" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>1336</v>
+        <v>1320</v>
+      </c>
+      <c r="C359" s="38" t="s">
+        <v>1319</v>
       </c>
       <c r="D359" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="B360" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>1338</v>
+        <v>1322</v>
+      </c>
+      <c r="C360" s="38" t="s">
+        <v>1321</v>
       </c>
       <c r="D360" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="B361" t="s">
-        <v>484</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>1340</v>
+        <v>470</v>
+      </c>
+      <c r="C361" s="38" t="s">
+        <v>1323</v>
       </c>
       <c r="D361" t="s">
-        <v>1341</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
       <c r="B362" t="s">
-        <v>485</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>1349</v>
+        <v>471</v>
+      </c>
+      <c r="C362" s="38" t="s">
+        <v>1332</v>
       </c>
       <c r="D362" t="s">
-        <v>1342</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
-        <v>1351</v>
+        <v>1334</v>
       </c>
       <c r="B363" t="s">
-        <v>486</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>1350</v>
+        <v>472</v>
+      </c>
+      <c r="C363" s="38" t="s">
+        <v>1333</v>
       </c>
       <c r="D363" t="s">
-        <v>1343</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="B364" t="s">
-        <v>487</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>1355</v>
+        <v>473</v>
+      </c>
+      <c r="C364" s="38" t="s">
+        <v>1338</v>
       </c>
       <c r="D364" t="s">
-        <v>1344</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="B365" t="s">
-        <v>488</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>1356</v>
+        <v>474</v>
+      </c>
+      <c r="C365" s="38" t="s">
+        <v>1339</v>
       </c>
       <c r="D365" t="s">
-        <v>1345</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>1358</v>
+        <v>1341</v>
       </c>
       <c r="B366" t="s">
-        <v>489</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>1359</v>
+        <v>475</v>
+      </c>
+      <c r="C366" s="38" t="s">
+        <v>1342</v>
       </c>
       <c r="D366" t="s">
-        <v>1346</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="B367" t="s">
-        <v>490</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>1360</v>
+        <v>476</v>
+      </c>
+      <c r="C367" s="38" t="s">
+        <v>1343</v>
       </c>
       <c r="D367" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B368" t="s">
+        <v>477</v>
+      </c>
+      <c r="C368" s="38" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A369" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C369" s="38" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A370" s="8" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B370" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C370" s="38" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A371" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B371" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C371" s="38" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A372" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B372" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C372" s="38" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A373" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B373" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C373" s="38" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A374" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B374" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C374" s="38" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A375" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C375" s="38" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A376" s="23" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B376" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="C376" s="38" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D376" t="s">
         <v>1369</v>
       </c>
-      <c r="B368" t="s">
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A377" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C377" s="38" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A378" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B378" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C378" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A379" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C379" s="38" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A380" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B380" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C380" s="38" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A381" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B381" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C381" s="38" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A382" s="8" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B382" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C368" s="6" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D368" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A369" s="11" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B369" s="12" t="s">
+      <c r="C382" s="38" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A383" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B383" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C369" s="6" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D369" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A370" s="11" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B370" s="12" t="s">
+      <c r="C383" s="38" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A384" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B384" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C370" s="6" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D370" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" s="11" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B371" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="C371" s="6" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D371" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A372" s="11" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B372" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A373" s="11" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B373" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374" s="11" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B374" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A375" s="11" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B375" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="C375" s="6" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D375" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A376" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="B376" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="C376" s="6" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377" s="11" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B377" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="C377" s="6" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A378" s="11" t="s">
+      <c r="C384" s="38" t="s">
         <v>1392</v>
       </c>
-      <c r="B378" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="C378" s="6" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A379" s="11" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B379" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="C379" s="6" t="s">
+      <c r="D384" t="s">
         <v>1393</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" s="11" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B380" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="C380" s="6" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D380" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A381" s="11" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B381" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C381" s="6" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D381" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A382" s="11" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B382" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C382" s="6" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D382" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" s="11" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B383" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="C383" s="6" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A384" s="11" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B384" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="C384" s="6" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B385" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>1412</v>
+        <v>1397</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C385" s="38" t="s">
+        <v>1395</v>
       </c>
       <c r="D385" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A386" s="11" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B386" s="12" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C386" s="6" t="s">
-        <v>1416</v>
+      <c r="A386" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B386" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C386" s="38" t="s">
+        <v>1399</v>
       </c>
       <c r="D386" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B387" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="C387" s="6" t="s">
-        <v>1418</v>
+        <v>1403</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C387" s="38" t="s">
+        <v>1401</v>
       </c>
       <c r="D387" t="s">
-        <v>1419</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B388" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="C388" s="6" t="s">
-        <v>1421</v>
+        <v>1406</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C388" s="38" t="s">
+        <v>1404</v>
       </c>
       <c r="D388" t="s">
-        <v>1422</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B389" s="12" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C389" s="6" t="s">
-        <v>1424</v>
+        <v>1408</v>
+      </c>
+      <c r="B389" s="9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C389" s="38" t="s">
+        <v>1407</v>
       </c>
       <c r="D389" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B390" s="12" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C390" s="6" t="s">
-        <v>1427</v>
+        <v>1383</v>
+      </c>
+      <c r="B390" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C390" s="38" t="s">
+        <v>1410</v>
       </c>
       <c r="D390" t="s">
-        <v>1333</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B391" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C391" s="6" t="s">
-        <v>1429</v>
+        <v>1414</v>
+      </c>
+      <c r="B391" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C391" s="38" t="s">
+        <v>1412</v>
       </c>
       <c r="D391" t="s">
-        <v>1430</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B392" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="C392" s="6" t="s">
-        <v>1432</v>
+        <v>1417</v>
+      </c>
+      <c r="B392" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C392" s="38" t="s">
+        <v>1415</v>
       </c>
       <c r="D392" t="s">
-        <v>1433</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B393" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="C393" s="6" t="s">
-        <v>1435</v>
+        <v>1420</v>
+      </c>
+      <c r="B393" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C393" s="38" t="s">
+        <v>1418</v>
       </c>
       <c r="D393" t="s">
-        <v>1436</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B394" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="C394" s="6" t="s">
-        <v>1438</v>
+        <v>1423</v>
+      </c>
+      <c r="B394" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C394" s="38" t="s">
+        <v>1421</v>
       </c>
       <c r="D394" t="s">
-        <v>1439</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B395" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="C395" s="6" t="s">
-        <v>1441</v>
+        <v>1431</v>
+      </c>
+      <c r="B395" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C395" s="38" t="s">
+        <v>1424</v>
       </c>
       <c r="D395" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B396" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="C396" s="6" t="s">
-        <v>1455</v>
+        <v>1432</v>
+      </c>
+      <c r="B396" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C396" s="38" t="s">
+        <v>1438</v>
       </c>
       <c r="D396" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A397" s="29" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B397" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="C397" s="6" t="s">
-        <v>1456</v>
+      <c r="A397" s="24" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B397" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="C397" s="38" t="s">
+        <v>1439</v>
       </c>
       <c r="D397" t="s">
-        <v>1444</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B398" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="C398" s="6" t="s">
-        <v>1457</v>
+        <v>1434</v>
+      </c>
+      <c r="B398" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C398" s="38" t="s">
+        <v>1440</v>
       </c>
       <c r="D398" t="s">
-        <v>1445</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B399" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="C399" s="6" t="s">
-        <v>1458</v>
+        <v>1435</v>
+      </c>
+      <c r="B399" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C399" s="38" t="s">
+        <v>1441</v>
       </c>
       <c r="D399" t="s">
-        <v>1446</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B400" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="C400" s="6" t="s">
-        <v>1459</v>
+        <v>1436</v>
+      </c>
+      <c r="B400" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C400" s="38" t="s">
+        <v>1442</v>
       </c>
       <c r="D400" t="s">
-        <v>1447</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B401" s="12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C401" s="6" t="s">
-        <v>1460</v>
+        <v>1437</v>
+      </c>
+      <c r="B401" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C401" s="38" t="s">
+        <v>1443</v>
       </c>
       <c r="D401" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B402" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="C402" s="6" t="s">
-        <v>1462</v>
+        <v>1447</v>
+      </c>
+      <c r="B402" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C402" s="38" t="s">
+        <v>1445</v>
       </c>
       <c r="D402" t="s">
-        <v>1463</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B403" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="C403" s="6" t="s">
-        <v>1465</v>
+        <v>1450</v>
+      </c>
+      <c r="B403" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C403" s="38" t="s">
+        <v>1448</v>
       </c>
       <c r="D403" t="s">
-        <v>1466</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B404" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="C404" s="6" t="s">
-        <v>1468</v>
+        <v>1453</v>
+      </c>
+      <c r="B404" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C404" s="38" t="s">
+        <v>1451</v>
       </c>
       <c r="D404" t="s">
-        <v>1469</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B405" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="C405" s="6" t="s">
-        <v>1471</v>
+        <v>1456</v>
+      </c>
+      <c r="B405" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C405" s="38" t="s">
+        <v>1454</v>
       </c>
       <c r="D405" t="s">
-        <v>1472</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B406" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="C406" s="6" t="s">
-        <v>1474</v>
+        <v>1459</v>
+      </c>
+      <c r="B406" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C406" s="38" t="s">
+        <v>1457</v>
       </c>
       <c r="D406" t="s">
-        <v>1475</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B407" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="C407" s="6" t="s">
-        <v>1477</v>
+        <v>1462</v>
+      </c>
+      <c r="B407" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C407" s="38" t="s">
+        <v>1460</v>
       </c>
       <c r="D407" t="s">
-        <v>1478</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B408" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="C408" s="6" t="s">
-        <v>1480</v>
+        <v>1465</v>
+      </c>
+      <c r="B408" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C408" s="38" t="s">
+        <v>1463</v>
       </c>
       <c r="D408" t="s">
-        <v>1481</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B409" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="C409" s="6" t="s">
-        <v>1483</v>
+        <v>1468</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C409" s="38" t="s">
+        <v>1466</v>
       </c>
       <c r="D409" t="s">
-        <v>1484</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B410" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="C410" s="6" t="s">
-        <v>1486</v>
+        <v>1471</v>
+      </c>
+      <c r="B410" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C410" s="38" t="s">
+        <v>1469</v>
       </c>
       <c r="D410" t="s">
-        <v>1487</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B411" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="C411" s="6" t="s">
-        <v>1489</v>
+        <v>1474</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C411" s="38" t="s">
+        <v>1472</v>
       </c>
       <c r="D411" t="s">
-        <v>1490</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B412" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="C412" s="6" t="s">
-        <v>1492</v>
+        <v>1477</v>
+      </c>
+      <c r="B412" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C412" s="38" t="s">
+        <v>1475</v>
       </c>
       <c r="D412" t="s">
-        <v>1493</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B413" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="C413" s="6" t="s">
-        <v>1495</v>
+        <v>1480</v>
+      </c>
+      <c r="B413" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C413" s="38" t="s">
+        <v>1478</v>
       </c>
       <c r="D413" t="s">
-        <v>1496</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B414" s="12" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C414" s="6" t="s">
-        <v>1500</v>
+        <v>1481</v>
+      </c>
+      <c r="B414" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C414" s="38" t="s">
+        <v>1483</v>
       </c>
       <c r="D414" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B415" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="C415" s="6" t="s">
-        <v>1501</v>
+        <v>1486</v>
+      </c>
+      <c r="B415" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C415" s="38" t="s">
+        <v>1484</v>
       </c>
       <c r="D415" t="s">
-        <v>1502</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B416" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="C416" s="6" t="s">
-        <v>1504</v>
+        <v>1489</v>
+      </c>
+      <c r="B416" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C416" s="38" t="s">
+        <v>1487</v>
       </c>
       <c r="D416" t="s">
-        <v>1505</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B417" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="C417" s="6" t="s">
-        <v>1507</v>
+        <v>1492</v>
+      </c>
+      <c r="B417" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C417" s="38" t="s">
+        <v>1490</v>
       </c>
       <c r="D417" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A418" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B418" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="C418" s="6" t="s">
-        <v>1510</v>
+      <c r="A418" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B418" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C418" s="38" t="s">
+        <v>1493</v>
       </c>
       <c r="D418" t="s">
-        <v>1511</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B419" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="C419" s="6" t="s">
-        <v>1512</v>
+        <v>1500</v>
+      </c>
+      <c r="B419" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C419" s="38" t="s">
+        <v>1495</v>
       </c>
       <c r="D419" t="s">
-        <v>1513</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B420" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="C420" s="6" t="s">
-        <v>1514</v>
+        <v>1501</v>
+      </c>
+      <c r="B420" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C420" s="38" t="s">
+        <v>1497</v>
       </c>
       <c r="D420" t="s">
-        <v>1515</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B421" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="C421" s="6" t="s">
-        <v>1519</v>
+        <v>1503</v>
+      </c>
+      <c r="B421" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C421" s="38" t="s">
+        <v>1502</v>
       </c>
       <c r="D421" t="s">
-        <v>1516</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B422" s="12" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C422" s="6" t="s">
-        <v>1521</v>
+        <v>1506</v>
+      </c>
+      <c r="B422" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C422" s="38" t="s">
+        <v>1504</v>
       </c>
       <c r="D422" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B423" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="C423" s="6" t="s">
-        <v>1524</v>
+        <v>1509</v>
+      </c>
+      <c r="B423" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C423" s="38" t="s">
+        <v>1507</v>
       </c>
       <c r="D423" t="s">
-        <v>1525</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B424" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="C424" s="6" t="s">
-        <v>1527</v>
+        <v>1512</v>
+      </c>
+      <c r="B424" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C424" s="38" t="s">
+        <v>1510</v>
       </c>
       <c r="D424" t="s">
-        <v>1528</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B425" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="C425" s="6" t="s">
-        <v>1530</v>
+        <v>1515</v>
+      </c>
+      <c r="B425" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C425" s="38" t="s">
+        <v>1513</v>
       </c>
       <c r="D425" t="s">
-        <v>1531</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B426" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C426" s="6" t="s">
-        <v>1533</v>
+        <v>1524</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C426" s="38" t="s">
+        <v>1516</v>
       </c>
       <c r="D426" t="s">
-        <v>1534</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B427" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C427" s="6" t="s">
-        <v>1544</v>
+        <v>1525</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C427" s="38" t="s">
+        <v>1527</v>
       </c>
       <c r="D427" t="s">
-        <v>1535</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B428" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C428" s="6" t="s">
-        <v>1545</v>
+        <v>1526</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C428" s="38" t="s">
+        <v>1528</v>
       </c>
       <c r="D428" t="s">
-        <v>1536</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B429" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C429" s="6" t="s">
-        <v>1553</v>
+        <v>1537</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C429" s="38" t="s">
+        <v>1536</v>
       </c>
       <c r="D429" t="s">
-        <v>1537</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B430" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="C430" s="6" t="s">
-        <v>1555</v>
+        <v>1539</v>
+      </c>
+      <c r="B430" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C430" s="38" t="s">
+        <v>1538</v>
       </c>
       <c r="D430" t="s">
-        <v>1538</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B431" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C431" s="6" t="s">
-        <v>1559</v>
+        <v>1540</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C431" s="38" t="s">
+        <v>1542</v>
       </c>
       <c r="D431" t="s">
-        <v>1539</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B432" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="C432" s="6" t="s">
-        <v>1560</v>
+        <v>1541</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C432" s="38" t="s">
+        <v>1543</v>
       </c>
       <c r="D432" t="s">
-        <v>1540</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B433" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C433" s="6" t="s">
-        <v>1564</v>
+        <v>1549</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C433" s="38" t="s">
+        <v>1547</v>
       </c>
       <c r="D433" t="s">
-        <v>1565</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B434" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="C434" s="6" t="s">
-        <v>1562</v>
+        <v>1550</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C434" s="38" t="s">
+        <v>1545</v>
       </c>
       <c r="D434" t="s">
-        <v>1563</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B435" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C435" s="6" t="s">
-        <v>1568</v>
+        <v>1555</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C435" s="38" t="s">
+        <v>1551</v>
       </c>
       <c r="D435" t="s">
-        <v>1569</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B436" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C436" s="6" t="s">
-        <v>1573</v>
+        <v>1557</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C436" s="38" t="s">
+        <v>1556</v>
       </c>
       <c r="D436" t="s">
-        <v>1570</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A437" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="B437" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C437" s="6" t="s">
-        <v>1575</v>
+      <c r="A437" s="12" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C437" s="38" t="s">
+        <v>1558</v>
       </c>
       <c r="D437" t="s">
-        <v>1576</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B438" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C438" s="6" t="s">
-        <v>1577</v>
+        <v>1563</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C438" s="38" t="s">
+        <v>1560</v>
       </c>
       <c r="D438" t="s">
-        <v>1571</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B439" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C439" s="6" t="s">
-        <v>1581</v>
+        <v>1565</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C439" s="38" t="s">
+        <v>1564</v>
       </c>
       <c r="D439" t="s">
-        <v>1578</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C440" s="38" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B441" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="C441" s="42" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D441" s="34" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E441" s="34"/>
+    </row>
+    <row r="442" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="B442" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="C442" s="42" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D442" s="34" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E442" s="34"/>
+    </row>
+    <row r="443" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="B443" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="C443" s="42" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D443" s="34" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E443" s="34"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A444" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="B444" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C444" s="38" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A445" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B445" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C445" s="38" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A446" s="14" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B446" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C446" s="38" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A447" s="14" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B447" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C447" s="38" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A448" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="B448" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C448" s="38" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A449" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="B449" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C449" s="38" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A450" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B450" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C450" s="38" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A451" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="B451" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C451" s="38" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A452" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="B452" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C452" s="38" t="s">
         <v>1583</v>
       </c>
-      <c r="B440" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C440" s="6" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D440" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A441" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="B441" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="C441" s="41" t="s">
+      <c r="D452" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A453" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="B453" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="C453" s="38" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D453" t="s">
         <v>1586</v>
       </c>
-      <c r="D441" s="41" t="s">
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A454" s="13" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B454" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C454" s="38" t="s">
         <v>1587</v>
       </c>
-      <c r="E441" s="41"/>
-    </row>
-    <row r="442" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A442" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="B442" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="C442" s="41" t="s">
+      <c r="D454" t="s">
         <v>1588</v>
       </c>
-      <c r="D442" s="41" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E442" s="41"/>
-    </row>
-    <row r="443" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A443" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="B443" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="C443" s="41" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D443" s="41" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E443" s="41"/>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A444" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="B444" s="19" t="s">
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A455" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B455" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="C444" s="6" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D444" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A445" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="B445" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="C445" s="6" t="s">
+      <c r="C455" s="38" t="s">
         <v>1590</v>
       </c>
-      <c r="D445" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A446" s="19" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B446" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="C446" s="6" t="s">
+      <c r="D455" t="s">
         <v>1591</v>
-      </c>
-      <c r="D446" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A447" s="19" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B447" s="19" t="s">
-        <v>571</v>
-      </c>
-      <c r="C447" s="6" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D447" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A448" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="B448" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="C448" s="6" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D448" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B449" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="C449" s="6" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D449" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A450" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="B450" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="C450" s="6" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D450" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="B451" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="C451" s="6" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D451" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A452" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="B452" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="C452" s="6" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D452" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A453" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="B453" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="C453" s="6" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A454" s="18" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B454" s="19" t="s">
-        <v>541</v>
-      </c>
-      <c r="C454" s="6" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D454" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A455" s="18" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B455" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="C455" s="6" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D455" t="s">
-        <v>1608</v>
       </c>
     </row>
   </sheetData>
@@ -11391,9 +11377,12 @@
   <hyperlinks>
     <hyperlink ref="C282" r:id="rId1" xr:uid="{A7A929DD-1D68-49E8-AD2A-04F596CAC8A9}"/>
     <hyperlink ref="C346" r:id="rId2" xr:uid="{A5BBAEF1-3A58-47D7-A848-3A24C41FBE9E}"/>
+    <hyperlink ref="C442" r:id="rId3" xr:uid="{E8DF68CF-4505-4A95-B6D6-5232F1CF583E}"/>
+    <hyperlink ref="C441" r:id="rId4" xr:uid="{926782C4-3F1D-4AA6-A20B-B032AC29D11C}"/>
+    <hyperlink ref="C443" r:id="rId5" xr:uid="{C24C2212-1E2A-41A1-A5B0-23F642FFDDC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -11653,6 +11642,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c23bcc05-bb70-448c-b869-ca05feb44454">
@@ -11661,15 +11659,6 @@
     <TaxCatchAll xmlns="636f7450-4f64-45f7-aa6c-f98af71a66c2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11692,6 +11681,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91245656-897C-449F-90EF-DC9D9784F31E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11700,12 +11697,4 @@
     <ds:schemaRef ds:uri="636f7450-4f64-45f7-aa6c-f98af71a66c2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>